--- a/Universal_Driver_soft/UniversalDriver_v2.1forStepper/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v2.1forStepper/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34DD30-8C5B-4F2D-AF3F-B3247CB15773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A95979-B723-4D96-AD9F-446EB4A58B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Десятичная</t>
   </si>
@@ -149,31 +149,25 @@
     <t>Скорость врашения  в процентах</t>
   </si>
   <si>
-    <t>1-100</t>
-  </si>
-  <si>
     <t>для прошивки UniversalDriver_v2.1forStepper</t>
   </si>
   <si>
-    <t>Максимальный ток</t>
-  </si>
-  <si>
-    <t>CurrentMAX</t>
-  </si>
-  <si>
-    <t>CurrentMIN</t>
-  </si>
-  <si>
-    <t>Минимальный ток</t>
-  </si>
-  <si>
     <t xml:space="preserve">если </t>
   </si>
   <si>
     <t>0-1</t>
   </si>
   <si>
-    <t>Напряжение питание двиготеля(напряжение питания меньше 30V установить true "1")</t>
+    <t>Accel</t>
+  </si>
+  <si>
+    <t>1-1000</t>
+  </si>
+  <si>
+    <t>Ускорение в попугаях 200 достаточно для максимального ускорения</t>
+  </si>
+  <si>
+    <t>Напряжение питание двиготеля(напряжение питания меньше 30V установить true "1") влияет на максимальную скорость</t>
   </si>
 </sst>
 </file>
@@ -490,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -600,13 +594,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -956,7 +953,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,14 +970,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1107,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1126,11 +1123,15 @@
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6">
+        <v>200</v>
+      </c>
       <c r="G9" s="16" t="s">
         <v>33</v>
       </c>
@@ -1142,19 +1143,15 @@
       <c r="B10" s="25">
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1162,13 +1159,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>

--- a/Universal_Driver_soft/UniversalDriver_v2.1forStepper/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v2.1forStepper/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A95979-B723-4D96-AD9F-446EB4A58B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF81E7-B0A6-4DD8-9F78-E2004BBCB330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Десятичная</t>
   </si>
@@ -134,9 +134,6 @@
     <t>состояние двигателя</t>
   </si>
   <si>
-    <t>Status Dir</t>
-  </si>
-  <si>
     <t>0(CW) - 1(CCW)</t>
   </si>
   <si>
@@ -168,6 +165,18 @@
   </si>
   <si>
     <t>Напряжение питание двиготеля(напряжение питания меньше 30V установить true "1") влияет на максимальную скорость</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Сделать заданное количество шагов</t>
+  </si>
+  <si>
+    <t>1-65534</t>
   </si>
 </sst>
 </file>
@@ -597,14 +606,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,33 +962,33 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -1025,7 +1034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1033,22 +1042,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -1062,14 +1069,14 @@
         <v>36</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -1077,20 +1084,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1098,13 +1105,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -1113,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1121,13 +1128,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
@@ -1136,7 +1143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1159,13 +1166,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -1174,7 +1181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1196,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1249,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1262,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1329,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
@@ -1335,7 +1342,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -1348,7 +1355,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1393,7 +1400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Universal_Driver_soft/UniversalDriver_v2.1forStepper/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v2.1forStepper/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF81E7-B0A6-4DD8-9F78-E2004BBCB330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593B4E8-1243-4F11-BB44-789525219671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <t>Сделать заданное количество шагов</t>
   </si>
   <si>
-    <t>1-65534</t>
+    <t>20-65534</t>
   </si>
 </sst>
 </file>
@@ -965,20 +965,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
